--- a/OnNativeWebHybridApplication/target/test-classes/com/config/mobiletestinglogins.xlsx
+++ b/OnNativeWebHybridApplication/target/test-classes/com/config/mobiletestinglogins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DuvarakeshKV\Desktop\reskill\MOBILE TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DuvarakeshKV\Mobile_testing\OnNativeWebHybridApplication\src\test\java\com\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8B9F16-2BFD-439A-BECA-A1B6B023481A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0375D-0D68-458F-8C4C-DC3560C1EEEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_SHEET" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -49,9 +49,6 @@
     <t>VENUGOPAL</t>
   </si>
   <si>
-    <t>DUVARAKESH123@GMAIL.COM</t>
-  </si>
-  <si>
     <t>DUVA12345</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>ACTUAL_OUTPUT</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>EXPECTED OUTPUT</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>DUVAR3212@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>DUVAKESH123@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>DUVA999888</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F5CFD9-5679-4AF9-9CF8-045E44CEDBA2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -503,76 +503,76 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F816D599-DC9B-4D05-B3D3-B8D15113ACAB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,56 +602,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
